--- a/DataOutput_2021_09_16.xlsx
+++ b/DataOutput_2021_09_16.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DCO/Documents/MATLAB/ChlGraysReef/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A8BBC86B-89ED-B647-AD36-E1279AF95FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1046250D-D040-3B4A-974E-B25E500516A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="3900" yWindow="2200" windowWidth="28040" windowHeight="17440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DataOutput" sheetId="1" r:id="rId1"/>
@@ -166,7 +166,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -703,6 +703,499 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800"/>
+              <a:t>Mean Chl-A at Grays Reef via Satellite (7Day data</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" baseline="0"/>
+              <a:t> mean)</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" baseline="0"/>
+              <a:t>[in mg/m^3]</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1800"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>MODIS 7Day Mean</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>DataOutput!$D$9:$D$18</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm\-yy</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>44386</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44393</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44407</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44414</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44421</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44428</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44435</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44442</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44454</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>DataOutput!$H$9:$H$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.70626902580261197</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.1967122554779099</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.648945093154907</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0361955165862999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.980524122714996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.97910165786743197</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>28.312660217285199</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.8164296150207502</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.54666167497634899</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.28792679309844998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-F5DA-C84B-B3CE-1780855A1B5A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>VIIRS 7Day Mean</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>DataOutput!$D$26:$D$34</c:f>
+              <c:numCache>
+                <c:formatCode>d\-mmm\-yy</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>44386</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44393</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44407</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44414</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>44421</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44428</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44435</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>44442</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>DataOutput!$H$26:$H$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.0180468559265099</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2217335700988801</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7879440784454299</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.4524120092392001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7054079771041899</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.3274003267288199</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.7617537975311302</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.0657598972320601</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.7137794494628902</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F5DA-C84B-B3CE-1780855A1B5A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="398872191"/>
+        <c:axId val="398924655"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="398872191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="d\-mmm\-yy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-1800000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="398924655"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="398924655"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="398872191"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CDD34952-E599-3C4D-8DD6-760648590D7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1001,11 +1494,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2104,5 +2597,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>